--- a/output/part1/grs_size_inv.xlsx
+++ b/output/part1/grs_size_inv.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.063446993936574</v>
+        <v>12.18812099985124</v>
       </c>
       <c r="C2" t="n">
-        <v>3.326228181776969e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07498047875564502</v>
+        <v>0.00736770806979629</v>
       </c>
       <c r="E2" t="n">
-        <v>-508.1290001376731</v>
+        <v>0.8929020919339536</v>
       </c>
       <c r="F2" t="n">
-        <v>258195.0807809114</v>
+        <v>0.7972741457800305</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.913933892276481</v>
+        <v>12.52358522724342</v>
       </c>
       <c r="C3" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0731519727137924</v>
+        <v>0.007355251178049704</v>
       </c>
       <c r="E3" t="n">
-        <v>-495.7375488931407</v>
+        <v>0.8913924250749858</v>
       </c>
       <c r="F3" t="n">
-        <v>245755.7173825791</v>
+        <v>0.7945804554810642</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.950164533662236</v>
+        <v>13.61217423570494</v>
       </c>
       <c r="C4" t="n">
-        <v>6.483702463810914e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07120038655508157</v>
+        <v>0.006486985216250005</v>
       </c>
       <c r="E4" t="n">
-        <v>-482.5120061923535</v>
+        <v>0.78616614760829</v>
       </c>
       <c r="F4" t="n">
-        <v>232817.8361197698</v>
+        <v>0.6180572116452596</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.137933138671707</v>
+        <v>13.8912692044324</v>
       </c>
       <c r="C5" t="n">
-        <v>2.147171329625053e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06939438572496286</v>
+        <v>0.006812886420499159</v>
       </c>
       <c r="E5" t="n">
-        <v>-470.2730686544021</v>
+        <v>0.825662537025618</v>
       </c>
       <c r="F5" t="n">
-        <v>221156.759101628</v>
+        <v>0.68171862504758</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.842659550139323</v>
+        <v>13.81768963282079</v>
       </c>
       <c r="C6" t="n">
-        <v>1.22335475083446e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06967587957310961</v>
+        <v>0.006478520402170357</v>
       </c>
       <c r="E6" t="n">
-        <v>-472.1807010138841</v>
+        <v>0.7851402858168145</v>
       </c>
       <c r="F6" t="n">
-        <v>222954.614409963</v>
+        <v>0.6164452684125092</v>
       </c>
     </row>
   </sheetData>
